--- a/medicine/Mort/Cimetière_Saint-Baudile_de_Nîmes/Cimetière_Saint-Baudile_de_Nîmes.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Baudile_de_Nîmes/Cimetière_Saint-Baudile_de_Nîmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Baudile_de_N%C3%AEmes</t>
+          <t>Cimetière_Saint-Baudile_de_Nîmes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Baudile est un des cimetières de la ville de Nîmes dans le Gard[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Baudile est un des cimetières de la ville de Nîmes dans le Gard.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Baudile_de_N%C3%AEmes</t>
+          <t>Cimetière_Saint-Baudile_de_Nîmes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière ancien est l'un des plus connus de la ville après le cimetière protestant de Nîmes. Consacré en 1836, il abrite dans sa partie ancienne de nombreux monuments funéraires intéressants d'un pont de vue artistique avec des statues (surtout de pleureuses et d'anges), des médaillons, des stèles ou obélisques de personnages notables du XIXe siècle, des sépultures entourées de grilles, quelques chapelles familiales ouvragées (famille Cornet, famille Jacques-Thierry, famille Fleury-Roulle, famille Martin-Monier, famille Mazoyer, famille Rieutord avec un buste, famille Sugier, famille Teraube...), etc. Il est ombragé dans sa partie ancienne[2], souvent de cyprès et de cèdres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière ancien est l'un des plus connus de la ville après le cimetière protestant de Nîmes. Consacré en 1836, il abrite dans sa partie ancienne de nombreux monuments funéraires intéressants d'un pont de vue artistique avec des statues (surtout de pleureuses et d'anges), des médaillons, des stèles ou obélisques de personnages notables du XIXe siècle, des sépultures entourées de grilles, quelques chapelles familiales ouvragées (famille Cornet, famille Jacques-Thierry, famille Fleury-Roulle, famille Martin-Monier, famille Mazoyer, famille Rieutord avec un buste, famille Sugier, famille Teraube...), etc. Il est ombragé dans sa partie ancienne, souvent de cyprès et de cèdres.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Baudile_de_N%C3%AEmes</t>
+          <t>Cimetière_Saint-Baudile_de_Nîmes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Célébrités
-Henry Bauquier (1873-1952), historien et numismate, cofondateur du musée du Vieux Nîmes
+          <t>Célébrités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Henry Bauquier (1873-1952), historien et numismate, cofondateur du musée du Vieux Nîmes
 Mgr Jean-François-Marie Cart (1799-1855), évêque de Nîmes (monument avec gisant)
 Melchior Doze (1827-1913), peintre
 Charles-Étienne Durand (1762-1840), architecte
@@ -560,10 +579,44 @@
 Nimeño II (né Christian Montcouquiol, 1954-1991), matador français
 Jean Pourtal de Ladevèze (1898-1976), poète
 Jean Reboul (1896-1954), poète (médaillon)
-Louis Roumieux (1829-1894), poète provençal
-Militants politiques
-Une stèle réalisée par Maxime Real del Sarte et inaugurée le 18 avril 1920[4] rend hommage aux quarante-trois jeunes nîmois d'Action française morts pour la France lors de la Première Guerre mondiale (bordure MN)[5],[6].
-En 1934, Auguste Héral, ligueur d'Action française, membre du cercle Saint-Charles et conseiller municipal de Nîmes y est également enterré[7].
+Louis Roumieux (1829-1894), poète provençal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_Saint-Baudile_de_Nîmes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Saint-Baudile_de_N%C3%AEmes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Militants politiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une stèle réalisée par Maxime Real del Sarte et inaugurée le 18 avril 1920 rend hommage aux quarante-trois jeunes nîmois d'Action française morts pour la France lors de la Première Guerre mondiale (bordure MN),.
+En 1934, Auguste Héral, ligueur d'Action française, membre du cercle Saint-Charles et conseiller municipal de Nîmes y est également enterré.
 </t>
         </is>
       </c>
